--- a/exportdata.xlsx
+++ b/exportdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48b4a35308d3c01e/Ntnu/dimGK/prosjekt/Besvarelse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_35D174A48780DC151BD82A11595ED87656CC90FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E885CE6-B24B-426D-8D0D-44C785385B54}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_35D174A48780DC151BD82A11595ED87656CC90FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03694226-E5F7-4B21-9CBB-319DA94F0B4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="3" r:id="rId1"/>
@@ -18,19 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Nods pr el</t>
-  </si>
-  <si>
-    <t>Tot nods</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="16">
   <si>
     <t>xC</t>
   </si>
@@ -60,6 +54,24 @@
   </si>
   <si>
     <t>(Alle)</t>
+  </si>
+  <si>
+    <t>Our Implementation</t>
+  </si>
+  <si>
+    <t>Total Nodes</t>
+  </si>
+  <si>
+    <t>Nodes per Element</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -129,7 +141,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,7 +279,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -260,7 +335,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -316,7 +391,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -372,7 +447,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4640,7 +4715,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4696,7 +4771,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4752,7 +4827,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4808,7 +4883,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4864,7 +4939,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4920,7 +4995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4976,7 +5051,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5032,7 +5107,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5088,7 +5163,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5144,7 +5219,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5200,7 +5275,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5256,7 +5331,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5312,7 +5387,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5368,7 +5443,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5424,7 +5499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5480,7 +5555,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5536,7 +5611,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5592,7 +5667,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5648,7 +5723,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5704,7 +5779,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5760,7 +5835,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5816,7 +5891,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5872,7 +5947,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5928,7 +6003,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5984,7 +6059,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6040,7 +6115,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6096,7 +6171,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6152,7 +6227,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6208,7 +6283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6264,7 +6339,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6320,7 +6395,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6376,7 +6451,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6432,7 +6507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6488,7 +6563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6544,7 +6619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6600,7 +6675,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6656,7 +6731,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6712,7 +6787,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6768,7 +6843,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6824,7 +6899,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6907,7 +6982,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6990,7 +7065,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7046,7 +7121,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7102,7 +7177,63 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="206"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8325,7 +8456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701082655"/>
@@ -8384,7 +8515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701082239"/>
@@ -8426,7 +8557,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8463,7 +8594,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8490,2617 +8621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nods pr el</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$241</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B22B-4918-88EA-E0830915E5CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1153236463"/>
-        <c:axId val="1153234799"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Tot nods</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$241</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="240"/>
-                      <c:pt idx="0">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>567</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>775</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>891</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1015</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1147</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1287</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1435</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1591</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1755</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1927</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2107</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2295</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2491</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2695</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2907</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>3127</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>3355</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>3591</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>4087</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>4347</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>4615</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4891</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>5175</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>5467</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>5767</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>6075</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>6391</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>6715</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>7047</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>567</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>775</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>891</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>1015</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>1147</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>1287</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>1435</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>1591</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>1755</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>1927</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>2107</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>2295</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>2491</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>2695</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>2907</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>3127</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>3355</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>3591</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>4087</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>4347</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>4615</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>4891</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>5175</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>5467</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>5767</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>6075</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>6391</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>6715</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>7047</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>567</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>775</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>891</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>1015</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>1147</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>1287</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>1435</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>1591</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>1755</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>1927</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>2107</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>2295</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>2491</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>2695</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>2907</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>3127</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>3355</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>3591</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>4087</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>4347</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>4615</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>4891</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>5175</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>5467</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>5767</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>6075</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>6391</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>6715</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>7047</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>567</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>775</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>891</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>1015</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>1147</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>1287</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>1435</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>1591</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>1755</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>1927</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>2107</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>2295</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>2491</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>2695</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>2907</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>3127</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>3355</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>3591</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>4087</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>4347</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>4615</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>4891</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>5175</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>5467</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>5767</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>6075</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>6391</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>6715</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>7047</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>567</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>775</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>891</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>1015</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>1147</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>1287</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>1435</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>1591</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>1755</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>1927</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>2107</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>2295</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>2491</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>2695</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>2907</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>3127</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>3355</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>3591</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>4087</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>4347</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>4615</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>4891</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>5175</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>5467</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>5767</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>6075</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>6391</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>6715</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>7047</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>567</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>667</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>775</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>891</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>1015</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>1147</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>1287</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>1435</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>1591</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>1755</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>1927</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>2107</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>2295</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>2491</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>2695</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>2907</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>3127</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>3355</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>3591</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>4087</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>4347</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>4615</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>4891</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>5175</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>5467</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>5767</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>6075</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>6391</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>6715</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>7047</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-B22B-4918-88EA-E0830915E5CB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>yC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2:$E$241</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="240"/>
-                      <c:pt idx="0">
-                        <c:v>3.6822457624727849E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.1274693151997161E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.7916378437724833E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.1835950802165453E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6.4407331813270838E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6.6199131449068693E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6.7500738851062003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6.8476713296051747E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>6.9227414420338126E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6.9817187848642881E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>7.0288918510578904E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>7.0672104279802569E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>7.0987580158903815E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>7.1250401265570196E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>7.1471664380047026E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>7.1659693109350289E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>7.1820828932343581E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7.1959971222345848E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>7.2080953060710939E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>7.2186807894665861E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>7.2279961410184349E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>7.2362371916029788E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>7.2435634296273407E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>7.2501057983226494E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>7.2559726125572613E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>7.2612540902118203E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>7.2660258646822962E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>7.2703517281922883E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>7.2742857801558689E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>7.2778741398505764E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>7.2811563450828148E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>7.2841664068188233E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>7.2869337500258993E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>7.2894839117226384E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>7.2918391560500728E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>7.2940189433877464E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7.2960403894635817E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>7.2979185388257303E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>7.2996667016017688E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>7.3012966715543137E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>3.6822457624728688E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>5.1274693151997161E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>5.7916378437677642E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>6.1835950802214337E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>6.4407331813153737E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>6.6199131449373019E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>6.7500738848955577E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>6.8476713296714495E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>6.9227414420671207E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>6.98171878474379E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>7.0288918510008E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>7.0672104281488179E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>7.0987580161759947E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>7.1250401264380051E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>7.1471664383050623E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>7.1659693105930095E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>7.1820828934634762E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>7.1959971223092181E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>7.2080953063193454E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>7.2186807886776158E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>7.2279961411276974E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>7.2362371912985682E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>7.2435634289447451E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>7.2501057982711309E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>7.2559726103037764E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>7.2612540891405841E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>7.2660258640285039E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>7.2703517285892069E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>7.274285780358597E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>7.2778741407730538E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>7.2811563457057707E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>7.2841664097461928E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>7.2869337488948804E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>7.2894839085277829E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>7.291839153978566E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>7.2940189427596794E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>7.2960403882293967E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>7.2979185358559573E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>7.2996667040855001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>7.3012966691601927E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>6.1967304367808562E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>6.6173411156276174E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>6.8289037346582981E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>6.957642950356438E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>7.0425852674638009E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>7.1016964515161582E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>7.1445112321646215E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>7.1765231780282407E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>7.201088466465283E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>7.2203534766447114E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>7.2357431853107501E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>7.2482337939170721E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>7.258512244770815E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>7.2670732994766299E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>7.2742806233391757E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>7.2804063726268686E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>7.285657503294557E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>7.2901936633811962E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>7.2941396052620733E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>7.2975939632924883E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>7.300635553614318E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>7.303327971948452E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>7.3057229930965487E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>7.3078631160742924E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>7.3097834919980592E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>7.3115133950284475E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>7.3130773744235128E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>7.3144961297124611E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>7.31578722437949E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>7.3169656368211919E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>7.3180442018545608E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>7.3190339720141634E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>7.3199445097078347E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>7.320784112075257E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>7.3215600240313386E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>7.3222785779607044E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>7.3229453351536161E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>7.3235652010437385E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>7.324142508298491E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>7.3246810979019666E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>6.1967304353499959E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>6.6173411149874892E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>6.8289037342560283E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>6.9576429500719378E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>7.0425852672322306E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>7.1016964513830383E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>7.1445112321211132E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>7.1765231780004171E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>7.201088466349316E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>7.2203534765630004E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>7.2357431852165061E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>7.2482337935677238E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>7.2585122454074169E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>7.2670732994881249E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>7.2742806233969962E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>7.2804063722437501E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>7.2856575029320192E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>7.2901936631790246E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>7.2941396053795793E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>7.2975939629628728E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>7.3006355537419826E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>7.3033279716005622E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>7.3057229937033161E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>7.3078631158544433E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>7.3097834922501298E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>7.3115133956906969E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>7.3130773739759639E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>7.3144961296048847E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>7.3157872255915135E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>7.3169656365728475E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>7.3180442014961156E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>7.3190339724195669E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>7.3199445077467631E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>7.3207841148941688E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>7.3215600232608924E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>7.3222785773794374E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>7.3229453333915839E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>7.3235652012668684E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>7.3241425081117528E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>7.3246810972404888E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>7.1687177180077277E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>7.2670829282971708E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>7.2901980690818421E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>7.3018652779361523E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>7.3089780945039609E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>7.3139117070849149E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>7.3174500625857133E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>7.3201698615364325E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>7.3222573870365279E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>7.3239588542050774E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>7.3253137655022019E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>7.3264662914029582E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>7.3274041563506739E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>7.3282302953628947E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>7.3289109482160816E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>7.3295289008881478E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>7.3300411374507699E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>7.3305188838731564E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>7.3309155330289838E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>7.3312946778281179E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>7.3316089273424284E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>7.3319162553286785E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>7.3321699250538927E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>7.3324234319024628E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>7.332631416312077E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>7.3328436319640797E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>7.3330164294786296E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>7.3331963308887346E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>7.3333415469829022E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>7.3334957463706635E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>7.3336189914990274E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>7.3337524537380683E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>7.3338579813739382E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>7.3339745006466325E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>7.3340655597871826E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>7.334168065827229E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>7.3342471986700616E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>7.3343380197033833E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>7.3344072203986532E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>7.334488193222706E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>7.2515012815234009E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>7.2987884132368883E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>7.3096341857000771E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>7.316069074128044E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>7.3198720317897772E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>7.3228788433960371E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>7.3248430067255982E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>7.3265728608587405E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>7.327741768000455E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>7.3288520363198786E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>7.329609318237397E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>7.3303754729247259E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>7.330895784494669E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>7.3314530383652224E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>7.3318264043693404E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>7.3322482919816176E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>7.332525273549334E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>7.3328549051063285E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>7.3330658178430652E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>7.3333299955538112E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>7.333493989776646E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>7.333710197413959E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>7.3338399009583111E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>7.3340199892669003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>7.3341240285682244E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>7.3342763051662652E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>7.3343607455522083E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>7.3344911919934724E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>7.3345604087294874E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>7.334673432556528E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>7.3347306443202295E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>7.3348295585689546E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>7.334877189607994E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>7.3349645266448021E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>7.3350044102303294E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>7.3350821410937836E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>7.3351157064018471E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>7.3351853820397189E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>7.335213735840547E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>7.3352765953909119E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-B22B-4918-88EA-E0830915E5CB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1153236463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1153234799"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1153234799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1153236463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11643,522 +9164,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12180,47 +9185,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1129B8FB-5CEB-4135-B277-58066720FA27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C051D1DE-8402-4E98-96E0-7AFD71D88F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14732,7 +11696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{418185AE-D195-485F-83AF-B01ACE817731}" name="Pivottabell7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{418185AE-D195-485F-83AF-B01ACE817731}" name="Pivottabell7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:F46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -15198,7 +12162,7 @@
   <dataFields count="1">
     <dataField name="Summer av yC" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -15280,6 +12244,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="206" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -15291,6 +12267,23 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D78EBE5C-9A23-454D-ADCB-8E5397310E85}" name="Tabell1" displayName="Tabell1" ref="A1:H241" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H241" xr:uid="{D78EBE5C-9A23-454D-ADCB-8E5397310E85}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D28FB3F2-FD50-452A-8F93-2F8FC3849057}" name="Index" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B117D052-EECA-4307-A497-75BFB62A11D2}" name="Nodes per Element"/>
+    <tableColumn id="3" xr3:uid="{CF248E3B-F70E-4ED5-8B1D-EF7B23EA09DF}" name="Total Nodes"/>
+    <tableColumn id="4" xr3:uid="{237379A3-49AB-4D95-961F-8E1107C72380}" name="xC"/>
+    <tableColumn id="5" xr3:uid="{3408BEB0-7140-465B-9FC9-EE35BE591A84}" name="yC"/>
+    <tableColumn id="6" xr3:uid="{314EABC8-CB24-43DB-AFB4-083F21DBD02F}" name="Tot.react.force x"/>
+    <tableColumn id="7" xr3:uid="{0977E15C-D77B-4849-974F-BE1BD292F358}" name="Tot.react.force y"/>
+    <tableColumn id="8" xr3:uid="{91E08D18-7CDF-4937-989D-91918322CBE0}" name="Our Implementation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15580,155 +12573,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7962D-387A-4F7C-8C57-B597FD706296}">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="43" max="45" width="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="53" max="55" width="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="58" max="60" width="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="63" max="65" width="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="68" max="70" width="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="73" max="75" width="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="78" max="80" width="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="83" max="85" width="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="88" max="90" width="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="93" max="95" width="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="98" max="100" width="2" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="103" max="105" width="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="108" max="110" width="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="113" max="115" width="2" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="118" max="120" width="2" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="123" max="125" width="2" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="128" max="130" width="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="133" max="135" width="2" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="138" max="140" width="2" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="143" max="145" width="2" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="148" max="150" width="2" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="153" max="155" width="2" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="158" max="160" width="2" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="163" max="165" width="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="168" max="170" width="2" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="173" max="175" width="2" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="178" max="180" width="2" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="183" max="185" width="2" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="188" max="190" width="2" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="193" max="195" width="2" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="198" max="200" width="2" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -15743,10 +12736,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>27</v>
       </c>
@@ -15766,7 +12759,7 @@
         <v>0.34178171396607637</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>55</v>
       </c>
@@ -15786,7 +12779,7 @@
         <v>0.38055492202548602</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>91</v>
       </c>
@@ -15806,7 +12799,7 @@
         <v>0.39840915411236494</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>135</v>
       </c>
@@ -15826,7 +12819,7 @@
         <v>0.40900410412930555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>187</v>
       </c>
@@ -15846,7 +12839,7 @@
         <v>0.41595487023632227</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>247</v>
       </c>
@@ -15866,7 +12859,7 @@
         <v>0.42080009743224317</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>315</v>
       </c>
@@ -15886,7 +12879,7 @@
         <v>0.42431463303598804</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>391</v>
       </c>
@@ -15906,7 +12899,7 @@
         <v>0.42695131737700454</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>475</v>
       </c>
@@ -15926,7 +12919,7 @@
         <v>0.42897658971952518</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>567</v>
       </c>
@@ -15946,7 +12939,7 @@
         <v>0.43056955413340742</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>667</v>
       </c>
@@ -15966,7 +12959,7 @@
         <v>0.4318419315632554</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>775</v>
       </c>
@@ -15986,7 +12979,7 @@
         <v>0.4328773020794156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>891</v>
       </c>
@@ -16006,7 +12999,7 @@
         <v>0.43372840463089951</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>1015</v>
       </c>
@@ -16026,7 +13019,7 @@
         <v>0.43443910185687895</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>1147</v>
       </c>
@@ -16046,7 +13039,7 @@
         <v>0.4350363147563136</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>1287</v>
       </c>
@@ -16066,7 +13059,7 @@
         <v>0.43554528559268429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>1435</v>
       </c>
@@ -16086,7 +13079,7 @@
         <v>0.43598047203924517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>1591</v>
       </c>
@@ -16106,7 +13099,7 @@
         <v>0.43635755360083506</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>1755</v>
       </c>
@@ -16126,7 +13119,7 @@
         <v>0.43668451173904144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>1927</v>
       </c>
@@ -16146,7 +13139,7 @@
         <v>0.43697174177781489</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>2107</v>
       </c>
@@ -16166,7 +13159,7 @@
         <v>0.43722366306621502</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>2295</v>
       </c>
@@ -16186,7 +13179,7 @@
         <v>0.43744756779193195</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>2491</v>
       </c>
@@ -16206,7 +13199,7 @@
         <v>0.43764582671384156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>2695</v>
       </c>
@@ -16226,7 +13219,7 @@
         <v>0.43782381249691882</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>2907</v>
       </c>
@@ -16246,7 +13239,7 @@
         <v>0.43798267651989531</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>3127</v>
       </c>
@@ -16266,7 +13259,7 @@
         <v>0.43812654907201898</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>3355</v>
       </c>
@@ -16286,7 +13279,7 @@
         <v>0.43825583652141115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>3591</v>
       </c>
@@ -16306,7 +13299,7 @@
         <v>0.43837383238981054</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>3835</v>
       </c>
@@ -16326,7 +13319,7 @@
         <v>0.43848047966197856</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>4087</v>
       </c>
@@ -16346,7 +13339,7 @@
         <v>0.4385784873294486</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>4347</v>
       </c>
@@ -16366,7 +13359,7 @@
         <v>0.43866750729958526</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>4615</v>
       </c>
@@ -16386,7 +13379,7 @@
         <v>0.43874982773305771</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>4891</v>
       </c>
@@ -16406,7 +13399,7 @@
         <v>0.43882491687357306</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>5175</v>
       </c>
@@ -16426,7 +13419,7 @@
         <v>0.43889475074511286</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>5467</v>
       </c>
@@ -16446,7 +13439,7 @@
         <v>0.43895868327338383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>5767</v>
       </c>
@@ -16466,7 +13459,7 @@
         <v>0.43901845248408583</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>6075</v>
       </c>
@@ -16486,7 +13479,7 @@
         <v>0.43907334351310084</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>6391</v>
       </c>
@@ -16506,7 +13499,7 @@
         <v>0.439124908787354</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>6715</v>
       </c>
@@ -16526,7 +13519,7 @@
         <v>0.43917239378336714</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>7047</v>
       </c>
@@ -16546,9 +13539,9 @@
         <v>0.43921720324470581</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2">
         <v>5.5654375927219526</v>
@@ -16576,36 +13569,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:H241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" customWidth="1"/>
+    <col min="7" max="7" width="15.9296875" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16627,11 +13631,11 @@
       <c r="G2">
         <v>-2999999.75</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -16653,11 +13657,11 @@
       <c r="G3">
         <v>-3000000</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -16679,11 +13683,11 @@
       <c r="G4">
         <v>-3000000</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -16705,11 +13709,11 @@
       <c r="G5">
         <v>-3000000</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -16731,11 +13735,11 @@
       <c r="G6">
         <v>-3000000</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -16757,11 +13761,11 @@
       <c r="G7">
         <v>-3000000</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -16783,11 +13787,11 @@
       <c r="G8">
         <v>-3000000.25</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -16809,11 +13813,11 @@
       <c r="G9">
         <v>-3000000.25</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -16835,11 +13839,11 @@
       <c r="G10">
         <v>-3000000.25</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -16861,11 +13865,11 @@
       <c r="G11">
         <v>-3000000</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -16887,11 +13891,11 @@
       <c r="G12">
         <v>-3000000</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -16913,11 +13917,11 @@
       <c r="G13">
         <v>-3000000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -16939,11 +13943,11 @@
       <c r="G14">
         <v>-3000000</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -16965,11 +13969,11 @@
       <c r="G15">
         <v>-3000000</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -16991,11 +13995,11 @@
       <c r="G16">
         <v>-2999999.75</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -17017,11 +14021,11 @@
       <c r="G17">
         <v>-3000000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -17043,11 +14047,11 @@
       <c r="G18">
         <v>-3000000</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -17069,11 +14073,11 @@
       <c r="G19">
         <v>-3000000</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -17095,11 +14099,11 @@
       <c r="G20">
         <v>-3000000</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -17121,11 +14125,11 @@
       <c r="G21">
         <v>-3000000.25</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -17147,11 +14151,11 @@
       <c r="G22">
         <v>-3000000</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -17173,11 +14177,11 @@
       <c r="G23">
         <v>-3000000.25</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -17199,11 +14203,11 @@
       <c r="G24">
         <v>-3000000</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -17225,11 +14229,11 @@
       <c r="G25">
         <v>-3000000</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -17251,11 +14255,11 @@
       <c r="G26">
         <v>-3000000.25</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -17277,11 +14281,11 @@
       <c r="G27">
         <v>-3000000</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -17303,11 +14307,11 @@
       <c r="G28">
         <v>-2999999.75</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -17329,11 +14333,11 @@
       <c r="G29">
         <v>-3000000</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -17355,11 +14359,11 @@
       <c r="G30">
         <v>-3000000</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -17381,11 +14385,11 @@
       <c r="G31">
         <v>-3000000.25</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -17407,11 +14411,11 @@
       <c r="G32">
         <v>-2999999.75</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -17433,11 +14437,11 @@
       <c r="G33">
         <v>-3000000</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -17459,11 +14463,11 @@
       <c r="G34">
         <v>-3000000</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -17485,11 +14489,11 @@
       <c r="G35">
         <v>-3000000</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -17511,11 +14515,11 @@
       <c r="G36">
         <v>-3000000.5</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -17537,11 +14541,11 @@
       <c r="G37">
         <v>-3000000</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -17563,11 +14567,11 @@
       <c r="G38">
         <v>-3000000</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -17589,11 +14593,11 @@
       <c r="G39">
         <v>-2999999.75</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -17615,11 +14619,11 @@
       <c r="G40">
         <v>-2999999.5</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -17641,11 +14645,11 @@
       <c r="G41">
         <v>-3000000.25</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -17667,11 +14671,11 @@
       <c r="G42">
         <v>-2999999.75</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -17693,11 +14697,11 @@
       <c r="G43">
         <v>-3000000</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -17719,11 +14723,11 @@
       <c r="G44">
         <v>-3000000</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -17745,11 +14749,11 @@
       <c r="G45">
         <v>-3000000</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -17771,11 +14775,11 @@
       <c r="G46">
         <v>-3000000</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -17797,11 +14801,11 @@
       <c r="G47">
         <v>-3000000</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -17823,11 +14827,11 @@
       <c r="G48">
         <v>-3000000.25</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -17849,11 +14853,11 @@
       <c r="G49">
         <v>-3000000.25</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -17875,11 +14879,11 @@
       <c r="G50">
         <v>-3000000.25</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -17901,11 +14905,11 @@
       <c r="G51">
         <v>-3000000</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -17927,11 +14931,11 @@
       <c r="G52">
         <v>-3000000</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -17953,11 +14957,11 @@
       <c r="G53">
         <v>-3000000</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -17979,11 +14983,11 @@
       <c r="G54">
         <v>-3000000</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -18005,11 +15009,11 @@
       <c r="G55">
         <v>-3000000</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -18031,11 +15035,11 @@
       <c r="G56">
         <v>-2999999.75</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -18057,11 +15061,11 @@
       <c r="G57">
         <v>-3000000</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -18083,11 +15087,11 @@
       <c r="G58">
         <v>-3000000</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -18109,11 +15113,11 @@
       <c r="G59">
         <v>-3000000</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -18135,11 +15139,11 @@
       <c r="G60">
         <v>-3000000</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -18161,11 +15165,11 @@
       <c r="G61">
         <v>-3000000.25</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -18187,11 +15191,11 @@
       <c r="G62">
         <v>-3000000</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -18213,11 +15217,11 @@
       <c r="G63">
         <v>-3000000.25</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -18239,11 +15243,11 @@
       <c r="G64">
         <v>-3000000</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -18265,11 +15269,11 @@
       <c r="G65">
         <v>-3000000</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -18291,11 +15295,11 @@
       <c r="G66">
         <v>-3000000.25</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -18317,11 +15321,11 @@
       <c r="G67">
         <v>-3000000</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -18343,11 +15347,11 @@
       <c r="G68">
         <v>-2999999.75</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -18369,11 +15373,11 @@
       <c r="G69">
         <v>-3000000</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -18395,11 +15399,11 @@
       <c r="G70">
         <v>-3000000</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -18421,11 +15425,11 @@
       <c r="G71">
         <v>-3000000.25</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -18447,11 +15451,11 @@
       <c r="G72">
         <v>-2999999.75</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -18473,11 +15477,11 @@
       <c r="G73">
         <v>-3000000</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -18499,11 +15503,11 @@
       <c r="G74">
         <v>-3000000</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -18525,11 +15529,11 @@
       <c r="G75">
         <v>-3000000</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -18551,11 +15555,11 @@
       <c r="G76">
         <v>-3000000.5</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -18577,11 +15581,11 @@
       <c r="G77">
         <v>-3000000</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -18603,11 +15607,11 @@
       <c r="G78">
         <v>-3000000</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -18629,11 +15633,11 @@
       <c r="G79">
         <v>-2999999.75</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -18655,11 +15659,11 @@
       <c r="G80">
         <v>-2999999.5</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -18681,11 +15685,11 @@
       <c r="G81">
         <v>-3000000.25</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -18707,11 +15711,11 @@
       <c r="G82">
         <v>-3000000</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -18733,11 +15737,11 @@
       <c r="G83">
         <v>-3000000.25</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -18759,11 +15763,11 @@
       <c r="G84">
         <v>-3000000</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -18785,11 +15789,11 @@
       <c r="G85">
         <v>-3000000.25</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -18811,11 +15815,11 @@
       <c r="G86">
         <v>-3000000</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -18837,11 +15841,11 @@
       <c r="G87">
         <v>-3000000.25</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -18863,11 +15867,11 @@
       <c r="G88">
         <v>-3000000.25</v>
       </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -18889,11 +15893,11 @@
       <c r="G89">
         <v>-3000000.25</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -18915,11 +15919,11 @@
       <c r="G90">
         <v>-3000000</v>
       </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -18941,11 +15945,11 @@
       <c r="G91">
         <v>-2999999.75</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -18967,11 +15971,11 @@
       <c r="G92">
         <v>-3000000</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -18993,11 +15997,11 @@
       <c r="G93">
         <v>-3000000</v>
       </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -19019,11 +16023,11 @@
       <c r="G94">
         <v>-3000000.5</v>
       </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -19045,11 +16049,11 @@
       <c r="G95">
         <v>-3000000</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -19071,11 +16075,11 @@
       <c r="G96">
         <v>-3000000</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -19097,11 +16101,11 @@
       <c r="G97">
         <v>-2999999.75</v>
       </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -19123,11 +16127,11 @@
       <c r="G98">
         <v>-3000000.25</v>
       </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -19149,11 +16153,11 @@
       <c r="G99">
         <v>-3000000</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -19175,11 +16179,11 @@
       <c r="G100">
         <v>-3000000</v>
       </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -19201,11 +16205,11 @@
       <c r="G101">
         <v>-3000000</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -19227,11 +16231,11 @@
       <c r="G102">
         <v>-3000000</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -19253,11 +16257,11 @@
       <c r="G103">
         <v>-3000000.25</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -19279,11 +16283,11 @@
       <c r="G104">
         <v>-3000000</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -19305,11 +16309,11 @@
       <c r="G105">
         <v>-3000000</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -19331,11 +16335,11 @@
       <c r="G106">
         <v>-2999999.5</v>
       </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -19357,11 +16361,11 @@
       <c r="G107">
         <v>-3000000</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -19383,11 +16387,11 @@
       <c r="G108">
         <v>-2999999.75</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -19409,11 +16413,11 @@
       <c r="G109">
         <v>-3000000</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -19435,11 +16439,11 @@
       <c r="G110">
         <v>-2999999.5</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -19461,11 +16465,11 @@
       <c r="G111">
         <v>-2999999.75</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -19487,11 +16491,11 @@
       <c r="G112">
         <v>-3000000</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19513,11 +16517,11 @@
       <c r="G113">
         <v>-2999999.75</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19539,11 +16543,11 @@
       <c r="G114">
         <v>-3000000.25</v>
       </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19565,11 +16569,11 @@
       <c r="G115">
         <v>-3000000.75</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19591,11 +16595,11 @@
       <c r="G116">
         <v>-3000000</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -19617,11 +16621,11 @@
       <c r="G117">
         <v>-3000000.25</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -19643,11 +16647,11 @@
       <c r="G118">
         <v>-2999999.75</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -19669,11 +16673,11 @@
       <c r="G119">
         <v>-3000000</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -19695,11 +16699,11 @@
       <c r="G120">
         <v>-2999999.5</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -19721,11 +16725,11 @@
       <c r="G121">
         <v>-3000000</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -19747,11 +16751,11 @@
       <c r="G122">
         <v>-3000000</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -19773,11 +16777,11 @@
       <c r="G123">
         <v>-3000000.25</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -19799,11 +16803,11 @@
       <c r="G124">
         <v>-3000000</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -19825,11 +16829,11 @@
       <c r="G125">
         <v>-3000000.25</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -19851,11 +16855,11 @@
       <c r="G126">
         <v>-3000000</v>
       </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -19877,11 +16881,11 @@
       <c r="G127">
         <v>-3000000.25</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -19903,11 +16907,11 @@
       <c r="G128">
         <v>-3000000.25</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -19929,11 +16933,11 @@
       <c r="G129">
         <v>-3000000.25</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -19955,11 +16959,11 @@
       <c r="G130">
         <v>-3000000</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -19981,11 +16985,11 @@
       <c r="G131">
         <v>-2999999.75</v>
       </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -20007,11 +17011,11 @@
       <c r="G132">
         <v>-3000000</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -20033,11 +17037,11 @@
       <c r="G133">
         <v>-3000000</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -20059,11 +17063,11 @@
       <c r="G134">
         <v>-3000000.5</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -20085,11 +17089,11 @@
       <c r="G135">
         <v>-3000000</v>
       </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -20111,11 +17115,11 @@
       <c r="G136">
         <v>-3000000</v>
       </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -20137,11 +17141,11 @@
       <c r="G137">
         <v>-2999999.75</v>
       </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -20163,11 +17167,11 @@
       <c r="G138">
         <v>-3000000.25</v>
       </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -20189,11 +17193,11 @@
       <c r="G139">
         <v>-3000000</v>
       </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -20215,11 +17219,11 @@
       <c r="G140">
         <v>-3000000</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -20241,11 +17245,11 @@
       <c r="G141">
         <v>-3000000</v>
       </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -20267,11 +17271,11 @@
       <c r="G142">
         <v>-3000000</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -20293,11 +17297,11 @@
       <c r="G143">
         <v>-3000000.25</v>
       </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -20319,11 +17323,11 @@
       <c r="G144">
         <v>-3000000</v>
       </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -20345,11 +17349,11 @@
       <c r="G145">
         <v>-3000000</v>
       </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -20371,11 +17375,11 @@
       <c r="G146">
         <v>-2999999.5</v>
       </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -20397,11 +17401,11 @@
       <c r="G147">
         <v>-3000000</v>
       </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -20423,11 +17427,11 @@
       <c r="G148">
         <v>-2999999.75</v>
       </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -20449,11 +17453,11 @@
       <c r="G149">
         <v>-3000000</v>
       </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -20475,11 +17479,11 @@
       <c r="G150">
         <v>-2999999.5</v>
       </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -20501,11 +17505,11 @@
       <c r="G151">
         <v>-2999999.75</v>
       </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -20527,11 +17531,11 @@
       <c r="G152">
         <v>-3000000</v>
       </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -20553,11 +17557,11 @@
       <c r="G153">
         <v>-2999999.75</v>
       </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -20579,11 +17583,11 @@
       <c r="G154">
         <v>-3000000.25</v>
       </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -20605,11 +17609,11 @@
       <c r="G155">
         <v>-3000000.75</v>
       </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -20631,11 +17635,11 @@
       <c r="G156">
         <v>-3000000</v>
       </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -20657,11 +17661,11 @@
       <c r="G157">
         <v>-3000000.25</v>
       </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -20683,11 +17687,11 @@
       <c r="G158">
         <v>-2999999.75</v>
       </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -20709,11 +17713,11 @@
       <c r="G159">
         <v>-3000000</v>
       </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -20735,11 +17739,11 @@
       <c r="G160">
         <v>-2999999.5</v>
       </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -20761,11 +17765,11 @@
       <c r="G161">
         <v>-3000000</v>
       </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -20787,11 +17791,11 @@
       <c r="G162">
         <v>-3000000</v>
       </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -20813,11 +17817,11 @@
       <c r="G163">
         <v>-2999999.75</v>
       </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -20839,11 +17843,11 @@
       <c r="G164">
         <v>-3000000</v>
       </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -20865,11 +17869,11 @@
       <c r="G165">
         <v>-2999999.75</v>
       </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -20891,11 +17895,11 @@
       <c r="G166">
         <v>-2999999.75</v>
       </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -20917,11 +17921,11 @@
       <c r="G167">
         <v>-3000000.25</v>
       </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -20943,11 +17947,11 @@
       <c r="G168">
         <v>-3000000</v>
       </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -20969,11 +17973,11 @@
       <c r="G169">
         <v>-3000000.25</v>
       </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -20995,11 +17999,11 @@
       <c r="G170">
         <v>-3000000.25</v>
       </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -21021,11 +18025,11 @@
       <c r="G171">
         <v>-3000000</v>
       </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -21047,11 +18051,11 @@
       <c r="G172">
         <v>-3000000</v>
       </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -21073,11 +18077,11 @@
       <c r="G173">
         <v>-3000000</v>
       </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -21099,11 +18103,11 @@
       <c r="G174">
         <v>-2999999.75</v>
       </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -21125,11 +18129,11 @@
       <c r="G175">
         <v>-3000000.25</v>
       </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -21151,11 +18155,11 @@
       <c r="G176">
         <v>-3000000.5</v>
       </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -21177,11 +18181,11 @@
       <c r="G177">
         <v>-3000000.25</v>
       </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -21203,11 +18207,11 @@
       <c r="G178">
         <v>-3000000</v>
       </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -21229,11 +18233,11 @@
       <c r="G179">
         <v>-3000000</v>
       </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -21255,11 +18259,11 @@
       <c r="G180">
         <v>-3000000</v>
       </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -21281,11 +18285,11 @@
       <c r="G181">
         <v>-3000000.25</v>
       </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -21307,11 +18311,11 @@
       <c r="G182">
         <v>-3000000.5</v>
       </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -21333,11 +18337,11 @@
       <c r="G183">
         <v>-3000000.25</v>
       </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -21359,11 +18363,11 @@
       <c r="G184">
         <v>-2999999.25</v>
       </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -21385,11 +18389,11 @@
       <c r="G185">
         <v>-3000000</v>
       </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -21411,11 +18415,11 @@
       <c r="G186">
         <v>-2999999.75</v>
       </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -21437,11 +18441,11 @@
       <c r="G187">
         <v>-2999999.5</v>
       </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -21463,11 +18467,11 @@
       <c r="G188">
         <v>-3000000</v>
       </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -21489,11 +18493,11 @@
       <c r="G189">
         <v>-2999999.5</v>
       </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -21515,11 +18519,11 @@
       <c r="G190">
         <v>-3000000.5</v>
       </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -21541,11 +18545,11 @@
       <c r="G191">
         <v>-2999999.75</v>
       </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -21567,11 +18571,11 @@
       <c r="G192">
         <v>-3000000.5</v>
       </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -21593,11 +18597,11 @@
       <c r="G193">
         <v>-3000000.25</v>
       </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -21619,11 +18623,11 @@
       <c r="G194">
         <v>-2999999.5</v>
       </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -21645,11 +18649,11 @@
       <c r="G195">
         <v>-3000000</v>
       </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -21671,11 +18675,11 @@
       <c r="G196">
         <v>-2999999.75</v>
       </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -21697,11 +18701,11 @@
       <c r="G197">
         <v>-3000000.5</v>
       </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -21723,11 +18727,11 @@
       <c r="G198">
         <v>-2999999.75</v>
       </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -21749,11 +18753,11 @@
       <c r="G199">
         <v>-3000000</v>
       </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -21775,11 +18779,11 @@
       <c r="G200">
         <v>-2999999.75</v>
       </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -21801,11 +18805,11 @@
       <c r="G201">
         <v>-3000000.25</v>
       </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -21827,11 +18831,11 @@
       <c r="G202">
         <v>-3000000</v>
       </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -21853,11 +18857,11 @@
       <c r="G203">
         <v>-3000000</v>
       </c>
-      <c r="H203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -21879,11 +18883,11 @@
       <c r="G204">
         <v>-3000000</v>
       </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -21905,11 +18909,11 @@
       <c r="G205">
         <v>-3000000.25</v>
       </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -21931,11 +18935,11 @@
       <c r="G206">
         <v>-3000000</v>
       </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -21957,11 +18961,11 @@
       <c r="G207">
         <v>-3000000.25</v>
       </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -21983,11 +18987,11 @@
       <c r="G208">
         <v>-2999999.75</v>
       </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -22009,11 +19013,11 @@
       <c r="G209">
         <v>-3000000.25</v>
       </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -22035,11 +19039,11 @@
       <c r="G210">
         <v>-3000000</v>
       </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -22061,11 +19065,11 @@
       <c r="G211">
         <v>-3000000</v>
       </c>
-      <c r="H211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -22087,11 +19091,11 @@
       <c r="G212">
         <v>-2999999.75</v>
       </c>
-      <c r="H212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -22113,11 +19117,11 @@
       <c r="G213">
         <v>-3000000.25</v>
       </c>
-      <c r="H213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -22139,11 +19143,11 @@
       <c r="G214">
         <v>-3000000.25</v>
       </c>
-      <c r="H214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -22165,11 +19169,11 @@
       <c r="G215">
         <v>-3000000.25</v>
       </c>
-      <c r="H215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -22191,11 +19195,11 @@
       <c r="G216">
         <v>-3000000</v>
       </c>
-      <c r="H216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -22217,11 +19221,11 @@
       <c r="G217">
         <v>-3000000</v>
       </c>
-      <c r="H217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -22243,11 +19247,11 @@
       <c r="G218">
         <v>-2999999.75</v>
       </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -22269,11 +19273,11 @@
       <c r="G219">
         <v>-3000000</v>
       </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -22295,11 +19299,11 @@
       <c r="G220">
         <v>-3000000</v>
       </c>
-      <c r="H220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -22321,11 +19325,11 @@
       <c r="G221">
         <v>-3000000.25</v>
       </c>
-      <c r="H221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -22347,11 +19351,11 @@
       <c r="G222">
         <v>-3000000</v>
       </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -22373,11 +19377,11 @@
       <c r="G223">
         <v>-2999999.75</v>
       </c>
-      <c r="H223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -22399,11 +19403,11 @@
       <c r="G224">
         <v>-3000000</v>
       </c>
-      <c r="H224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -22425,11 +19429,11 @@
       <c r="G225">
         <v>-3000000.25</v>
       </c>
-      <c r="H225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -22451,11 +19455,11 @@
       <c r="G226">
         <v>-3000000.25</v>
       </c>
-      <c r="H226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -22477,11 +19481,11 @@
       <c r="G227">
         <v>-3000000.5</v>
       </c>
-      <c r="H227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -22503,11 +19507,11 @@
       <c r="G228">
         <v>-2999999.75</v>
       </c>
-      <c r="H228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -22529,11 +19533,11 @@
       <c r="G229">
         <v>-2999999.75</v>
       </c>
-      <c r="H229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -22555,11 +19559,11 @@
       <c r="G230">
         <v>-2999999.75</v>
       </c>
-      <c r="H230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -22581,11 +19585,11 @@
       <c r="G231">
         <v>-3000000.5</v>
       </c>
-      <c r="H231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -22607,11 +19611,11 @@
       <c r="G232">
         <v>-2999999</v>
       </c>
-      <c r="H232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -22633,11 +19637,11 @@
       <c r="G233">
         <v>-3000000</v>
       </c>
-      <c r="H233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -22659,11 +19663,11 @@
       <c r="G234">
         <v>-2999999.75</v>
       </c>
-      <c r="H234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -22685,11 +19689,11 @@
       <c r="G235">
         <v>-2999999.5</v>
       </c>
-      <c r="H235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -22711,11 +19715,11 @@
       <c r="G236">
         <v>-2999999.75</v>
       </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -22737,11 +19741,11 @@
       <c r="G237">
         <v>-2999999.75</v>
       </c>
-      <c r="H237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -22763,11 +19767,11 @@
       <c r="G238">
         <v>-2999999.75</v>
       </c>
-      <c r="H238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -22789,11 +19793,11 @@
       <c r="G239">
         <v>-3000000.25</v>
       </c>
-      <c r="H239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -22815,11 +19819,11 @@
       <c r="G240">
         <v>-2999999.75</v>
       </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -22841,12 +19845,14 @@
       <c r="G241">
         <v>-2999999.25</v>
       </c>
-      <c r="H241">
-        <v>0</v>
+      <c r="H241" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>